--- a/natmiOut/OldD4/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H2">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I2">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J2">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.933435277869936</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N2">
-        <v>0.933435277869936</v>
+        <v>3.018767</v>
       </c>
       <c r="O2">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="P2">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="Q2">
-        <v>9.648499333151241</v>
+        <v>17.51323989972934</v>
       </c>
       <c r="R2">
-        <v>9.648499333151241</v>
+        <v>157.619159097564</v>
       </c>
       <c r="S2">
-        <v>0.001149868285709324</v>
+        <v>0.001466309166195382</v>
       </c>
       <c r="T2">
-        <v>0.001149868285709324</v>
+        <v>0.001564042954844011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H3">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I3">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J3">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.69290501631313</v>
+        <v>7.646551333333332</v>
       </c>
       <c r="N3">
-        <v>4.69290501631313</v>
+        <v>22.939654</v>
       </c>
       <c r="O3">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="P3">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="Q3">
-        <v>48.50844187479761</v>
+        <v>133.0833627500187</v>
       </c>
       <c r="R3">
-        <v>48.50844187479761</v>
+        <v>1197.750264750168</v>
       </c>
       <c r="S3">
-        <v>0.005781035679751296</v>
+        <v>0.01114250451576771</v>
       </c>
       <c r="T3">
-        <v>0.005781035679751296</v>
+        <v>0.01188518498620769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H4">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I4">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J4">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8106912368334</v>
+        <v>16.55429333333333</v>
       </c>
       <c r="N4">
-        <v>13.8106912368334</v>
+        <v>49.66287999999999</v>
       </c>
       <c r="O4">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="P4">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="Q4">
-        <v>142.7548844018642</v>
+        <v>288.1169469361066</v>
       </c>
       <c r="R4">
-        <v>142.7548844018642</v>
+        <v>2593.05252242496</v>
       </c>
       <c r="S4">
-        <v>0.01701293730101679</v>
+        <v>0.02412280780983139</v>
       </c>
       <c r="T4">
-        <v>0.01701293730101679</v>
+        <v>0.02573066340703456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>163.630264649244</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H5">
-        <v>163.630264649244</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I5">
-        <v>0.3790372537337974</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J5">
-        <v>0.3790372537337974</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.933435277869936</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N5">
-        <v>0.933435277869936</v>
+        <v>3.018767</v>
       </c>
       <c r="O5">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="P5">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="Q5">
-        <v>152.7382615507982</v>
+        <v>179.4535388919426</v>
       </c>
       <c r="R5">
-        <v>152.7382615507982</v>
+        <v>1615.081850027483</v>
       </c>
       <c r="S5">
-        <v>0.01820271494119258</v>
+        <v>0.01502488234558595</v>
       </c>
       <c r="T5">
-        <v>0.01820271494119258</v>
+        <v>0.01602633463783627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>163.630264649244</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H6">
-        <v>163.630264649244</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I6">
-        <v>0.3790372537337974</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J6">
-        <v>0.3790372537337974</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.69290501631313</v>
+        <v>7.646551333333332</v>
       </c>
       <c r="N6">
-        <v>4.69290501631313</v>
+        <v>22.939654</v>
       </c>
       <c r="O6">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="P6">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="Q6">
-        <v>767.9012897930822</v>
+        <v>1363.670031922539</v>
       </c>
       <c r="R6">
-        <v>767.9012897930822</v>
+        <v>12273.03028730285</v>
       </c>
       <c r="S6">
-        <v>0.09151530297095055</v>
+        <v>0.1141742977839794</v>
       </c>
       <c r="T6">
-        <v>0.09151530297095055</v>
+        <v>0.1217843482058004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>163.630264649244</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H7">
-        <v>163.630264649244</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I7">
-        <v>0.3790372537337974</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J7">
-        <v>0.3790372537337974</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8106912368334</v>
+        <v>16.55429333333333</v>
       </c>
       <c r="N7">
-        <v>13.8106912368334</v>
+        <v>49.66287999999999</v>
       </c>
       <c r="O7">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="P7">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="Q7">
-        <v>2259.847062072044</v>
+        <v>2952.258179437458</v>
       </c>
       <c r="R7">
-        <v>2259.847062072044</v>
+        <v>26570.32361493712</v>
       </c>
       <c r="S7">
-        <v>0.2693192358216543</v>
+        <v>0.2471800337498567</v>
       </c>
       <c r="T7">
-        <v>0.2693192358216543</v>
+        <v>0.263655304950235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>85.4032467053773</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H8">
-        <v>85.4032467053773</v>
+        <v>259.852135</v>
       </c>
       <c r="I8">
-        <v>0.1978302251148119</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J8">
-        <v>0.1978302251148119</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.933435277869936</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N8">
-        <v>0.933435277869936</v>
+        <v>3.018767</v>
       </c>
       <c r="O8">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="P8">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="Q8">
-        <v>79.71840331942855</v>
+        <v>87.1592277797272</v>
       </c>
       <c r="R8">
-        <v>79.71840331942855</v>
+        <v>784.4330500175449</v>
       </c>
       <c r="S8">
-        <v>0.009500509934165834</v>
+        <v>0.007297471818101475</v>
       </c>
       <c r="T8">
-        <v>0.009500509934165834</v>
+        <v>0.007783869628864821</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>85.4032467053773</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H9">
-        <v>85.4032467053773</v>
+        <v>259.852135</v>
       </c>
       <c r="I9">
-        <v>0.1978302251148119</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J9">
-        <v>0.1978302251148119</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.69290501631313</v>
+        <v>7.646551333333332</v>
       </c>
       <c r="N9">
-        <v>4.69290501631313</v>
+        <v>22.939654</v>
       </c>
       <c r="O9">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="P9">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="Q9">
-        <v>400.7893248730929</v>
+        <v>662.3242297845876</v>
       </c>
       <c r="R9">
-        <v>400.7893248730929</v>
+        <v>5960.918068061289</v>
       </c>
       <c r="S9">
-        <v>0.04776441579251303</v>
+        <v>0.05545359366324025</v>
       </c>
       <c r="T9">
-        <v>0.04776441579251303</v>
+        <v>0.05914973764694903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.4032467053773</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H10">
-        <v>85.4032467053773</v>
+        <v>259.852135</v>
       </c>
       <c r="I10">
-        <v>0.1978302251148119</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J10">
-        <v>0.1978302251148119</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8106912368334</v>
+        <v>16.55429333333333</v>
       </c>
       <c r="N10">
-        <v>13.8106912368334</v>
+        <v>49.66287999999999</v>
       </c>
       <c r="O10">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="P10">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="Q10">
-        <v>1179.477870871075</v>
+        <v>1433.889488694311</v>
       </c>
       <c r="R10">
-        <v>1179.477870871075</v>
+        <v>12905.0053982488</v>
       </c>
       <c r="S10">
-        <v>0.1405652993881331</v>
+        <v>0.1200534745496275</v>
       </c>
       <c r="T10">
-        <v>0.1405652993881331</v>
+        <v>0.1280553892744813</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>100.955319483884</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H11">
-        <v>100.955319483884</v>
+        <v>307.921211</v>
       </c>
       <c r="I11">
-        <v>0.2338554370062025</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J11">
-        <v>0.2338554370062025</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.933435277869936</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N11">
-        <v>0.933435277869936</v>
+        <v>3.018767</v>
       </c>
       <c r="O11">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="P11">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="Q11">
-        <v>94.23525669488743</v>
+        <v>103.2824878185374</v>
       </c>
       <c r="R11">
-        <v>94.23525669488743</v>
+        <v>929.5423903668369</v>
       </c>
       <c r="S11">
-        <v>0.011230568540003</v>
+        <v>0.008647403876316731</v>
       </c>
       <c r="T11">
-        <v>0.011230568540003</v>
+        <v>0.009223778601573453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>100.955319483884</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H12">
-        <v>100.955319483884</v>
+        <v>307.921211</v>
       </c>
       <c r="I12">
-        <v>0.2338554370062025</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J12">
-        <v>0.2338554370062025</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.69290501631313</v>
+        <v>7.646551333333332</v>
       </c>
       <c r="N12">
-        <v>4.69290501631313</v>
+        <v>22.939654</v>
       </c>
       <c r="O12">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="P12">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="Q12">
-        <v>473.7737252294139</v>
+        <v>784.8451155112214</v>
       </c>
       <c r="R12">
-        <v>473.7737252294139</v>
+        <v>7063.606039600993</v>
       </c>
       <c r="S12">
-        <v>0.05646239507649318</v>
+        <v>0.06571174685590658</v>
       </c>
       <c r="T12">
-        <v>0.05646239507649318</v>
+        <v>0.070091626711402</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>100.955319483884</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H13">
-        <v>100.955319483884</v>
+        <v>307.921211</v>
       </c>
       <c r="I13">
-        <v>0.2338554370062025</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J13">
-        <v>0.2338554370062025</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.8106912368334</v>
+        <v>16.55429333333333</v>
       </c>
       <c r="N13">
-        <v>13.8106912368334</v>
+        <v>49.66287999999999</v>
       </c>
       <c r="O13">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="P13">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="Q13">
-        <v>1394.262746107793</v>
+        <v>1699.139350149742</v>
       </c>
       <c r="R13">
-        <v>1394.262746107793</v>
+        <v>15292.25415134768</v>
       </c>
       <c r="S13">
-        <v>0.1661624733897063</v>
+        <v>0.1422617184502986</v>
       </c>
       <c r="T13">
-        <v>0.1661624733897063</v>
+        <v>0.1517438774958485</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.3743095726448</v>
+        <v>88.82503149999999</v>
       </c>
       <c r="H14">
-        <v>71.3743095726448</v>
+        <v>177.650063</v>
       </c>
       <c r="I14">
-        <v>0.1653332428787108</v>
+        <v>0.1874637554152924</v>
       </c>
       <c r="J14">
-        <v>0.1653332428787108</v>
+        <v>0.1333058414989229</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.933435277869936</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N14">
-        <v>0.933435277869936</v>
+        <v>3.018767</v>
       </c>
       <c r="O14">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="P14">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="Q14">
-        <v>66.62329848871653</v>
+        <v>89.38069128872016</v>
       </c>
       <c r="R14">
-        <v>66.62329848871653</v>
+        <v>536.284147732321</v>
       </c>
       <c r="S14">
-        <v>0.007939889445636783</v>
+        <v>0.007483465519110234</v>
       </c>
       <c r="T14">
-        <v>0.007939889445636783</v>
+        <v>0.005321506902191209</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.3743095726448</v>
+        <v>88.82503149999999</v>
       </c>
       <c r="H15">
-        <v>71.3743095726448</v>
+        <v>177.650063</v>
       </c>
       <c r="I15">
-        <v>0.1653332428787108</v>
+        <v>0.1874637554152924</v>
       </c>
       <c r="J15">
-        <v>0.1653332428787108</v>
+        <v>0.1333058414989229</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.69290501631313</v>
+        <v>7.646551333333332</v>
       </c>
       <c r="N15">
-        <v>4.69290501631313</v>
+        <v>22.939654</v>
       </c>
       <c r="O15">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="P15">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="Q15">
-        <v>334.9528554293511</v>
+        <v>679.2051630497002</v>
       </c>
       <c r="R15">
-        <v>334.9528554293511</v>
+        <v>4075.230978298201</v>
       </c>
       <c r="S15">
-        <v>0.03991829738150573</v>
+        <v>0.05686696248147642</v>
       </c>
       <c r="T15">
-        <v>0.03991829738150573</v>
+        <v>0.04043820775001124</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.3743095726448</v>
+        <v>88.82503149999999</v>
       </c>
       <c r="H16">
-        <v>71.3743095726448</v>
+        <v>177.650063</v>
       </c>
       <c r="I16">
-        <v>0.1653332428787108</v>
+        <v>0.1874637554152924</v>
       </c>
       <c r="J16">
-        <v>0.1653332428787108</v>
+        <v>0.1333058414989229</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.8106912368334</v>
+        <v>16.55429333333333</v>
       </c>
       <c r="N16">
-        <v>13.8106912368334</v>
+        <v>49.66287999999999</v>
       </c>
       <c r="O16">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="P16">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="Q16">
-        <v>985.7285517499598</v>
+        <v>1470.435626793573</v>
       </c>
       <c r="R16">
-        <v>985.7285517499598</v>
+        <v>8822.613760761438</v>
       </c>
       <c r="S16">
-        <v>0.1174750560515682</v>
+        <v>0.1231133274147058</v>
       </c>
       <c r="T16">
-        <v>0.1174750560515682</v>
+        <v>0.08754612684672045</v>
       </c>
     </row>
   </sheetData>
